--- a/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>03f5f47c-5712-4e8e-b427-a6b8dcbae345</t>
+    <t>43e7fe0c-da8c-4343-a42d-bcc548695131</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>43e7fe0c-da8c-4343-a42d-bcc548695131</t>
+    <t>73ace296-dd52-4c11-a839-bbb55403a5fb</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>73ace296-dd52-4c11-a839-bbb55403a5fb</t>
+    <t>dd4a4c6d-64d7-4d59-bb34-49398d9b825c</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>dd4a4c6d-64d7-4d59-bb34-49398d9b825c</t>
+    <t>6e6b95fd-9e26-40fb-8016-3bf8ce8386c9</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>6e6b95fd-9e26-40fb-8016-3bf8ce8386c9</t>
+    <t>8404e3c7-354d-464a-862b-b702e6978b01</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>8404e3c7-354d-464a-862b-b702e6978b01</t>
+    <t>81a26c73-eaf4-494d-a3ed-932ac57c591b</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>
